--- a/data-migration/xlsx_1900-/1910_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1910_Winter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89B7D60-0C2A-4A42-A542-7EAACC210BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED27184-1E96-43E8-844C-5A362B93D3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="18240" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="1256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="1255">
   <si>
     <t>Winter</t>
   </si>
@@ -3669,9 +3669,6 @@
   </si>
   <si>
     <t>Philosophische Fakultät I</t>
-  </si>
-  <si>
-    <t>*Philosophische Fakultät I</t>
   </si>
   <si>
     <t>Philosophische Fakultät II</t>
@@ -4152,8 +4149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K344" sqref="K344"/>
+    <sheetView tabSelected="1" topLeftCell="A256" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E276" sqref="E276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4190,7 +4187,7 @@
         <v>1095</v>
       </c>
       <c r="I1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -4216,7 +4213,7 @@
         <v>1089</v>
       </c>
       <c r="I2" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -4239,10 +4236,10 @@
         <v>835</v>
       </c>
       <c r="H3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="I3" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -4265,10 +4262,10 @@
         <v>836</v>
       </c>
       <c r="H4" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="I4" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -4294,7 +4291,7 @@
         <v>1089</v>
       </c>
       <c r="I5" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -4320,7 +4317,7 @@
         <v>1091</v>
       </c>
       <c r="I6" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -4346,7 +4343,7 @@
         <v>1092</v>
       </c>
       <c r="I7" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -4372,10 +4369,10 @@
         <v>1093</v>
       </c>
       <c r="I8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J8" t="s">
         <v>1214</v>
-      </c>
-      <c r="J8" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -4401,10 +4398,10 @@
         <v>1093</v>
       </c>
       <c r="I9" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J9" t="s">
         <v>1214</v>
-      </c>
-      <c r="J9" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -4430,10 +4427,10 @@
         <v>1093</v>
       </c>
       <c r="I10" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J10" t="s">
         <v>1214</v>
-      </c>
-      <c r="J10" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -4459,7 +4456,7 @@
         <v>1090</v>
       </c>
       <c r="I11" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -4485,7 +4482,7 @@
         <v>1090</v>
       </c>
       <c r="I12" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -4511,7 +4508,7 @@
         <v>1094</v>
       </c>
       <c r="I13" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -4537,7 +4534,7 @@
         <v>1094</v>
       </c>
       <c r="I14" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -4563,7 +4560,7 @@
         <v>1090</v>
       </c>
       <c r="I15" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -4589,7 +4586,7 @@
         <v>1094</v>
       </c>
       <c r="I16" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -4615,7 +4612,7 @@
         <v>1094</v>
       </c>
       <c r="I17" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -4641,7 +4638,7 @@
         <v>1095</v>
       </c>
       <c r="I18" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -4667,7 +4664,7 @@
         <v>1095</v>
       </c>
       <c r="I19" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -4693,7 +4690,7 @@
         <v>1091</v>
       </c>
       <c r="I20" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -4719,7 +4716,7 @@
         <v>1092</v>
       </c>
       <c r="I21" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -4745,7 +4742,7 @@
         <v>1089</v>
       </c>
       <c r="I22" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -4771,7 +4768,7 @@
         <v>1091</v>
       </c>
       <c r="I23" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -4797,10 +4794,10 @@
         <v>1093</v>
       </c>
       <c r="I24" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J24" t="s">
         <v>1214</v>
-      </c>
-      <c r="J24" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -4826,7 +4823,7 @@
         <v>1090</v>
       </c>
       <c r="I25" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -4852,7 +4849,7 @@
         <v>1095</v>
       </c>
       <c r="I26" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -4878,7 +4875,7 @@
         <v>1095</v>
       </c>
       <c r="I27" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -4904,7 +4901,7 @@
         <v>1091</v>
       </c>
       <c r="I28" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -4930,10 +4927,10 @@
         <v>1096</v>
       </c>
       <c r="I29" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="J29" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -4959,7 +4956,7 @@
         <v>1097</v>
       </c>
       <c r="I30" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -4985,7 +4982,7 @@
         <v>1097</v>
       </c>
       <c r="I31" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -5011,7 +5008,7 @@
         <v>1098</v>
       </c>
       <c r="I32" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -5037,7 +5034,7 @@
         <v>1098</v>
       </c>
       <c r="I33" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -5063,7 +5060,7 @@
         <v>1099</v>
       </c>
       <c r="I34" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -5089,7 +5086,7 @@
         <v>1100</v>
       </c>
       <c r="I35" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -5115,7 +5112,7 @@
         <v>1100</v>
       </c>
       <c r="I36" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -5141,7 +5138,7 @@
         <v>1099</v>
       </c>
       <c r="I37" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -5167,7 +5164,7 @@
         <v>1099</v>
       </c>
       <c r="I38" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -5190,10 +5187,10 @@
         <v>868</v>
       </c>
       <c r="H39" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="I39" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -5219,7 +5216,7 @@
         <v>1101</v>
       </c>
       <c r="I40" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -5245,7 +5242,7 @@
         <v>1102</v>
       </c>
       <c r="I41" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -5271,7 +5268,7 @@
         <v>1102</v>
       </c>
       <c r="I42" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -5297,7 +5294,7 @@
         <v>1103</v>
       </c>
       <c r="I43" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -5320,10 +5317,10 @@
         <v>1096</v>
       </c>
       <c r="I44" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="J44" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -5349,7 +5346,7 @@
         <v>1103</v>
       </c>
       <c r="I45" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -5375,10 +5372,10 @@
         <v>1096</v>
       </c>
       <c r="I46" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="J46" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -5404,7 +5401,7 @@
         <v>1103</v>
       </c>
       <c r="I47" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -5430,7 +5427,7 @@
         <v>1103</v>
       </c>
       <c r="I48" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -5456,7 +5453,7 @@
         <v>1104</v>
       </c>
       <c r="I49" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -5482,7 +5479,7 @@
         <v>1105</v>
       </c>
       <c r="I50" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -5508,7 +5505,7 @@
         <v>1105</v>
       </c>
       <c r="I51" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -5534,7 +5531,7 @@
         <v>1104</v>
       </c>
       <c r="I52" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -5560,7 +5557,7 @@
         <v>1106</v>
       </c>
       <c r="I53" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -5586,7 +5583,7 @@
         <v>1107</v>
       </c>
       <c r="I54" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -5612,7 +5609,7 @@
         <v>1106</v>
       </c>
       <c r="I55" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -5638,7 +5635,7 @@
         <v>1108</v>
       </c>
       <c r="I56" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -5664,7 +5661,7 @@
         <v>1108</v>
       </c>
       <c r="I57" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -5690,7 +5687,7 @@
         <v>1109</v>
       </c>
       <c r="I58" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -5713,10 +5710,10 @@
         <v>885</v>
       </c>
       <c r="H59" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="I59" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -5739,10 +5736,10 @@
         <v>855</v>
       </c>
       <c r="H60" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="I60" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -5768,7 +5765,7 @@
         <v>1111</v>
       </c>
       <c r="I61" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -5794,7 +5791,7 @@
         <v>1096</v>
       </c>
       <c r="I62" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -5820,7 +5817,7 @@
         <v>1098</v>
       </c>
       <c r="I63" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -5846,7 +5843,7 @@
         <v>1098</v>
       </c>
       <c r="I64" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -5872,7 +5869,7 @@
         <v>1100</v>
       </c>
       <c r="I65" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -5898,7 +5895,7 @@
         <v>1103</v>
       </c>
       <c r="I66" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -5924,7 +5921,7 @@
         <v>1105</v>
       </c>
       <c r="I67" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -5950,7 +5947,7 @@
         <v>1109</v>
       </c>
       <c r="I68" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -5976,7 +5973,7 @@
         <v>1107</v>
       </c>
       <c r="I69" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -6002,7 +5999,7 @@
         <v>1107</v>
       </c>
       <c r="I70" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -6028,7 +6025,7 @@
         <v>1106</v>
       </c>
       <c r="I71" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -6051,10 +6048,10 @@
         <v>896</v>
       </c>
       <c r="H72" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="I72" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -6077,10 +6074,10 @@
         <v>840</v>
       </c>
       <c r="H73" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="I73" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -6103,10 +6100,10 @@
         <v>897</v>
       </c>
       <c r="H74" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="I74" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -6132,7 +6129,7 @@
         <v>1112</v>
       </c>
       <c r="I75" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -6158,7 +6155,7 @@
         <v>1113</v>
       </c>
       <c r="I76" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -6184,7 +6181,7 @@
         <v>1114</v>
       </c>
       <c r="I77" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -6210,7 +6207,7 @@
         <v>1114</v>
       </c>
       <c r="I78" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -6236,7 +6233,7 @@
         <v>1114</v>
       </c>
       <c r="I79" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -6262,7 +6259,7 @@
         <v>1115</v>
       </c>
       <c r="I80" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -6288,7 +6285,7 @@
         <v>1115</v>
       </c>
       <c r="I81" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -6314,7 +6311,7 @@
         <v>1116</v>
       </c>
       <c r="I82" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -6340,7 +6337,7 @@
         <v>1117</v>
       </c>
       <c r="I83" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -6366,7 +6363,7 @@
         <v>1117</v>
       </c>
       <c r="I84" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -6389,10 +6386,10 @@
         <v>907</v>
       </c>
       <c r="H85" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I85" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -6415,10 +6412,10 @@
         <v>902</v>
       </c>
       <c r="H86" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I86" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -6444,7 +6441,7 @@
         <v>1118</v>
       </c>
       <c r="I87" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -6470,7 +6467,7 @@
         <v>1118</v>
       </c>
       <c r="I88" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -6496,7 +6493,7 @@
         <v>1118</v>
       </c>
       <c r="I89" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -6522,7 +6519,7 @@
         <v>1118</v>
       </c>
       <c r="I90" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -6548,7 +6545,7 @@
         <v>1118</v>
       </c>
       <c r="I91" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -6574,7 +6571,7 @@
         <v>1119</v>
       </c>
       <c r="I92" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -6637,10 +6634,10 @@
         <v>897</v>
       </c>
       <c r="H95" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I95" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -6663,10 +6660,10 @@
         <v>914</v>
       </c>
       <c r="H96" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I96" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -6689,10 +6686,10 @@
         <v>915</v>
       </c>
       <c r="H97" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I97" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -6715,10 +6712,10 @@
         <v>913</v>
       </c>
       <c r="H98" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I98" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -6744,7 +6741,7 @@
         <v>1120</v>
       </c>
       <c r="I99" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -6767,10 +6764,10 @@
         <v>917</v>
       </c>
       <c r="H100" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="I100" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -6793,10 +6790,10 @@
         <v>918</v>
       </c>
       <c r="H101" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="I101" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -6819,10 +6816,10 @@
         <v>919</v>
       </c>
       <c r="H102" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="I102" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -6845,10 +6842,10 @@
         <v>920</v>
       </c>
       <c r="H103" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="I103" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -6871,10 +6868,10 @@
         <v>902</v>
       </c>
       <c r="H104" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="I104" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -6897,13 +6894,13 @@
         <v>921</v>
       </c>
       <c r="H105" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="I105" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J105" t="s">
         <v>1214</v>
-      </c>
-      <c r="J105" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -6926,13 +6923,13 @@
         <v>922</v>
       </c>
       <c r="H106" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="I106" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J106" t="s">
         <v>1214</v>
-      </c>
-      <c r="J106" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -6958,7 +6955,7 @@
         <v>1121</v>
       </c>
       <c r="I107" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -6984,7 +6981,7 @@
         <v>1121</v>
       </c>
       <c r="I108" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -7010,7 +7007,7 @@
         <v>1121</v>
       </c>
       <c r="I109" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -7036,7 +7033,7 @@
         <v>1121</v>
       </c>
       <c r="I110" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -7059,10 +7056,10 @@
         <v>927</v>
       </c>
       <c r="H111" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="I111" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -7085,10 +7082,10 @@
         <v>928</v>
       </c>
       <c r="H112" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="I112" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -7111,10 +7108,10 @@
         <v>911</v>
       </c>
       <c r="H113" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="I113" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -7137,10 +7134,10 @@
         <v>911</v>
       </c>
       <c r="H114" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="I114" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -7163,10 +7160,10 @@
         <v>839</v>
       </c>
       <c r="H115" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="I115" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -7192,7 +7189,7 @@
         <v>1122</v>
       </c>
       <c r="I116" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -7218,7 +7215,7 @@
         <v>1122</v>
       </c>
       <c r="I117" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -7244,7 +7241,7 @@
         <v>1122</v>
       </c>
       <c r="I118" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -7270,7 +7267,7 @@
         <v>1122</v>
       </c>
       <c r="I119" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -7293,10 +7290,10 @@
         <v>932</v>
       </c>
       <c r="H120" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="I120" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -7319,10 +7316,10 @@
         <v>839</v>
       </c>
       <c r="H121" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="I121" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -7345,10 +7342,10 @@
         <v>933</v>
       </c>
       <c r="H122" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="I122" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -7374,7 +7371,7 @@
         <v>1124</v>
       </c>
       <c r="I123" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -7400,7 +7397,7 @@
         <v>1125</v>
       </c>
       <c r="I124" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -7426,7 +7423,7 @@
         <v>1125</v>
       </c>
       <c r="I125" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -7452,7 +7449,7 @@
         <v>1125</v>
       </c>
       <c r="I126" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -7475,10 +7472,10 @@
         <v>935</v>
       </c>
       <c r="H127" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I127" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -7501,10 +7498,10 @@
         <v>936</v>
       </c>
       <c r="H128" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="I128" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -7527,10 +7524,10 @@
         <v>839</v>
       </c>
       <c r="H129" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="I129" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -7556,7 +7553,7 @@
         <v>1126</v>
       </c>
       <c r="I130" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -7582,7 +7579,7 @@
         <v>1126</v>
       </c>
       <c r="I131" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -7608,7 +7605,7 @@
         <v>1126</v>
       </c>
       <c r="I132" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -7634,7 +7631,7 @@
         <v>1104</v>
       </c>
       <c r="I133" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -7660,7 +7657,7 @@
         <v>1127</v>
       </c>
       <c r="I134" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -7686,7 +7683,7 @@
         <v>1127</v>
       </c>
       <c r="I135" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -7712,7 +7709,7 @@
         <v>1128</v>
       </c>
       <c r="I136" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -7738,7 +7735,7 @@
         <v>1128</v>
       </c>
       <c r="I137" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -7764,7 +7761,7 @@
         <v>1129</v>
       </c>
       <c r="I138" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -7790,7 +7787,7 @@
         <v>1129</v>
       </c>
       <c r="I139" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -7816,7 +7813,7 @@
         <v>1129</v>
       </c>
       <c r="I140" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -7842,7 +7839,7 @@
         <v>1130</v>
       </c>
       <c r="I141" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -7868,7 +7865,7 @@
         <v>1130</v>
       </c>
       <c r="I142" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -7894,7 +7891,7 @@
         <v>1130</v>
       </c>
       <c r="I143" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -7920,7 +7917,7 @@
         <v>1123</v>
       </c>
       <c r="I144" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -7946,7 +7943,7 @@
         <v>1123</v>
       </c>
       <c r="I145" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -7972,7 +7969,7 @@
         <v>1131</v>
       </c>
       <c r="I146" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -7998,7 +7995,7 @@
         <v>1131</v>
       </c>
       <c r="I147" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -8021,10 +8018,10 @@
         <v>839</v>
       </c>
       <c r="H148" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I148" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -8050,7 +8047,7 @@
         <v>1132</v>
       </c>
       <c r="I149" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -8076,7 +8073,7 @@
         <v>1133</v>
       </c>
       <c r="I150" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -8102,7 +8099,7 @@
         <v>1134</v>
       </c>
       <c r="I151" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -8128,7 +8125,7 @@
         <v>1135</v>
       </c>
       <c r="I152" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -8154,7 +8151,7 @@
         <v>1136</v>
       </c>
       <c r="I153" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -8180,7 +8177,7 @@
         <v>1136</v>
       </c>
       <c r="I154" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -8206,7 +8203,7 @@
         <v>1091</v>
       </c>
       <c r="I155" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -8229,10 +8226,10 @@
         <v>948</v>
       </c>
       <c r="H156" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="I156" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -8258,7 +8255,7 @@
         <v>1137</v>
       </c>
       <c r="I157" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -8284,7 +8281,7 @@
         <v>1137</v>
       </c>
       <c r="I158" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -8310,7 +8307,7 @@
         <v>1209</v>
       </c>
       <c r="I159" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -8336,7 +8333,7 @@
         <v>1209</v>
       </c>
       <c r="I160" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -8359,10 +8356,10 @@
         <v>885</v>
       </c>
       <c r="H161" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="I161" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -8388,7 +8385,7 @@
         <v>1138</v>
       </c>
       <c r="I162" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -8414,7 +8411,7 @@
         <v>1138</v>
       </c>
       <c r="I163" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -8440,7 +8437,7 @@
         <v>1138</v>
       </c>
       <c r="I164" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -8466,7 +8463,7 @@
         <v>1139</v>
       </c>
       <c r="I165" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -8492,7 +8489,7 @@
         <v>1140</v>
       </c>
       <c r="I166" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -8518,7 +8515,7 @@
         <v>1140</v>
       </c>
       <c r="I167" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -8544,7 +8541,7 @@
         <v>1140</v>
       </c>
       <c r="I168" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -8570,7 +8567,7 @@
         <v>1140</v>
       </c>
       <c r="I169" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -8596,7 +8593,7 @@
         <v>1140</v>
       </c>
       <c r="I170" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -8622,7 +8619,7 @@
         <v>1140</v>
       </c>
       <c r="I171" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -8648,7 +8645,7 @@
         <v>1141</v>
       </c>
       <c r="I172" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -8671,10 +8668,10 @@
         <v>956</v>
       </c>
       <c r="H173" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="I173" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -8697,10 +8694,10 @@
         <v>957</v>
       </c>
       <c r="H174" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="I174" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -8723,10 +8720,10 @@
         <v>911</v>
       </c>
       <c r="H175" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="I175" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -8752,7 +8749,7 @@
         <v>1142</v>
       </c>
       <c r="I176" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -8778,7 +8775,7 @@
         <v>1142</v>
       </c>
       <c r="I177" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
@@ -8804,7 +8801,7 @@
         <v>1142</v>
       </c>
       <c r="I178" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
@@ -8830,7 +8827,7 @@
         <v>1143</v>
       </c>
       <c r="I179" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
@@ -8856,7 +8853,7 @@
         <v>1143</v>
       </c>
       <c r="I180" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
@@ -8882,7 +8879,7 @@
         <v>1143</v>
       </c>
       <c r="I181" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -8908,7 +8905,7 @@
         <v>1143</v>
       </c>
       <c r="I182" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
@@ -8931,10 +8928,10 @@
         <v>963</v>
       </c>
       <c r="H183" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="I183" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
@@ -8957,10 +8954,10 @@
         <v>964</v>
       </c>
       <c r="H184" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="I184" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -8986,7 +8983,7 @@
         <v>1140</v>
       </c>
       <c r="I185" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
@@ -9012,7 +9009,7 @@
         <v>1144</v>
       </c>
       <c r="I186" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
@@ -9038,7 +9035,7 @@
         <v>1144</v>
       </c>
       <c r="I187" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
@@ -9064,7 +9061,7 @@
         <v>1144</v>
       </c>
       <c r="I188" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
@@ -9090,7 +9087,7 @@
         <v>1144</v>
       </c>
       <c r="I189" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
@@ -9116,10 +9113,10 @@
         <v>1145</v>
       </c>
       <c r="I190" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J190" t="s">
         <v>1214</v>
-      </c>
-      <c r="J190" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
@@ -9145,10 +9142,10 @@
         <v>1145</v>
       </c>
       <c r="I191" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J191" t="s">
         <v>1214</v>
-      </c>
-      <c r="J191" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
@@ -9174,10 +9171,10 @@
         <v>1145</v>
       </c>
       <c r="I192" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J192" t="s">
         <v>1214</v>
-      </c>
-      <c r="J192" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
@@ -9203,10 +9200,10 @@
         <v>1145</v>
       </c>
       <c r="I193" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J193" t="s">
         <v>1214</v>
-      </c>
-      <c r="J193" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
@@ -9232,10 +9229,10 @@
         <v>1145</v>
       </c>
       <c r="I194" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J194" t="s">
         <v>1214</v>
-      </c>
-      <c r="J194" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
@@ -9261,7 +9258,7 @@
         <v>1146</v>
       </c>
       <c r="I195" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
@@ -9287,7 +9284,7 @@
         <v>1146</v>
       </c>
       <c r="I196" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
@@ -9313,7 +9310,7 @@
         <v>1146</v>
       </c>
       <c r="I197" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
@@ -9339,7 +9336,7 @@
         <v>1146</v>
       </c>
       <c r="I198" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
@@ -9365,7 +9362,7 @@
         <v>1146</v>
       </c>
       <c r="I199" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
@@ -9391,7 +9388,7 @@
         <v>1147</v>
       </c>
       <c r="I200" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
@@ -9417,7 +9414,7 @@
         <v>1147</v>
       </c>
       <c r="I201" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
@@ -9443,7 +9440,7 @@
         <v>1147</v>
       </c>
       <c r="I202" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
@@ -9469,7 +9466,7 @@
         <v>1147</v>
       </c>
       <c r="I203" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
@@ -9495,7 +9492,7 @@
         <v>1147</v>
       </c>
       <c r="I204" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
@@ -9521,7 +9518,7 @@
         <v>1147</v>
       </c>
       <c r="I205" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
@@ -9547,7 +9544,7 @@
         <v>1148</v>
       </c>
       <c r="I206" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
@@ -9573,7 +9570,7 @@
         <v>1148</v>
       </c>
       <c r="I207" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
@@ -9599,7 +9596,7 @@
         <v>1149</v>
       </c>
       <c r="I208" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
@@ -9625,7 +9622,7 @@
         <v>1149</v>
       </c>
       <c r="I209" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
@@ -9651,7 +9648,7 @@
         <v>1149</v>
       </c>
       <c r="I210" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -9677,7 +9674,7 @@
         <v>1150</v>
       </c>
       <c r="I211" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -9703,7 +9700,7 @@
         <v>1097</v>
       </c>
       <c r="I212" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -9729,7 +9726,7 @@
         <v>1151</v>
       </c>
       <c r="I213" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -9755,7 +9752,7 @@
         <v>1150</v>
       </c>
       <c r="I214" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -9781,7 +9778,7 @@
         <v>1151</v>
       </c>
       <c r="I215" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -9807,7 +9804,7 @@
         <v>1150</v>
       </c>
       <c r="I216" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -9833,7 +9830,7 @@
         <v>1097</v>
       </c>
       <c r="I217" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -9859,7 +9856,7 @@
         <v>1097</v>
       </c>
       <c r="I218" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -9882,10 +9879,10 @@
         <v>993</v>
       </c>
       <c r="H219" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="I219" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -9908,10 +9905,10 @@
         <v>994</v>
       </c>
       <c r="H220" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="I220" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -9934,10 +9931,10 @@
         <v>995</v>
       </c>
       <c r="H221" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="I221" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -9963,7 +9960,7 @@
         <v>1150</v>
       </c>
       <c r="I222" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -9989,7 +9986,7 @@
         <v>1150</v>
       </c>
       <c r="I223" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
@@ -10012,10 +10009,10 @@
         <v>997</v>
       </c>
       <c r="H224" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="I224" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -10041,7 +10038,7 @@
         <v>1152</v>
       </c>
       <c r="I225" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -10067,7 +10064,7 @@
         <v>1152</v>
       </c>
       <c r="I226" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -10093,7 +10090,7 @@
         <v>1153</v>
       </c>
       <c r="I227" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -10119,7 +10116,7 @@
         <v>1153</v>
       </c>
       <c r="I228" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -10145,7 +10142,7 @@
         <v>1153</v>
       </c>
       <c r="I229" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -10171,7 +10168,7 @@
         <v>1153</v>
       </c>
       <c r="I230" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
@@ -10197,7 +10194,7 @@
         <v>1153</v>
       </c>
       <c r="I231" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -10223,7 +10220,7 @@
         <v>1153</v>
       </c>
       <c r="I232" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -10249,7 +10246,7 @@
         <v>1089</v>
       </c>
       <c r="I233" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -10272,10 +10269,10 @@
         <v>839</v>
       </c>
       <c r="H234" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="I234" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
@@ -10301,7 +10298,7 @@
         <v>1154</v>
       </c>
       <c r="I235" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -10327,7 +10324,7 @@
         <v>1154</v>
       </c>
       <c r="I236" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
@@ -10353,7 +10350,7 @@
         <v>1155</v>
       </c>
       <c r="I237" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -10379,7 +10376,7 @@
         <v>1156</v>
       </c>
       <c r="I238" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -10402,10 +10399,10 @@
         <v>1009</v>
       </c>
       <c r="H239" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="I239" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -10428,10 +10425,10 @@
         <v>1010</v>
       </c>
       <c r="H240" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="I240" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -10454,10 +10451,10 @@
         <v>839</v>
       </c>
       <c r="H241" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="I241" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -10483,7 +10480,7 @@
         <v>1156</v>
       </c>
       <c r="I242" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
@@ -10509,7 +10506,7 @@
         <v>1155</v>
       </c>
       <c r="I243" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -10532,10 +10529,10 @@
         <v>1013</v>
       </c>
       <c r="H244" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="I244" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
@@ -10561,7 +10558,7 @@
         <v>1157</v>
       </c>
       <c r="I245" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -10584,10 +10581,10 @@
         <v>940</v>
       </c>
       <c r="H246" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="I246" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
@@ -10610,10 +10607,10 @@
         <v>1015</v>
       </c>
       <c r="H247" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="I247" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -10639,7 +10636,7 @@
         <v>1157</v>
       </c>
       <c r="I248" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
@@ -10662,10 +10659,10 @@
         <v>1017</v>
       </c>
       <c r="H249" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="I249" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -10688,10 +10685,10 @@
         <v>869</v>
       </c>
       <c r="H250" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="I250" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -10717,7 +10714,7 @@
         <v>1157</v>
       </c>
       <c r="I251" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -10743,7 +10740,7 @@
         <v>1157</v>
       </c>
       <c r="I252" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -10766,10 +10763,10 @@
         <v>1018</v>
       </c>
       <c r="H253" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="I253" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -10792,10 +10789,10 @@
         <v>940</v>
       </c>
       <c r="H254" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="I254" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
@@ -10821,7 +10818,7 @@
         <v>1155</v>
       </c>
       <c r="I255" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -10847,7 +10844,7 @@
         <v>1110</v>
       </c>
       <c r="I256" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
@@ -10873,7 +10870,7 @@
         <v>1110</v>
       </c>
       <c r="I257" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
@@ -10899,7 +10896,7 @@
         <v>1110</v>
       </c>
       <c r="I258" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
@@ -10922,10 +10919,10 @@
         <v>889</v>
       </c>
       <c r="H259" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="I259" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -10951,7 +10948,7 @@
         <v>1110</v>
       </c>
       <c r="I260" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
@@ -10974,10 +10971,10 @@
         <v>911</v>
       </c>
       <c r="H261" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="I261" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
@@ -11000,10 +10997,10 @@
         <v>834</v>
       </c>
       <c r="H262" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="I262" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -11026,10 +11023,10 @@
         <v>3</v>
       </c>
       <c r="H263" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="I263" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -11052,10 +11049,10 @@
         <v>1023</v>
       </c>
       <c r="H264" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="I264" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -11078,10 +11075,10 @@
         <v>886</v>
       </c>
       <c r="H265" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="I265" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -11107,7 +11104,7 @@
         <v>1159</v>
       </c>
       <c r="I266" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
@@ -11133,7 +11130,7 @@
         <v>1159</v>
       </c>
       <c r="I267" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
@@ -11156,10 +11153,10 @@
         <v>894</v>
       </c>
       <c r="H268" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="I268" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
@@ -11185,7 +11182,7 @@
         <v>1110</v>
       </c>
       <c r="I269" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
@@ -11208,10 +11205,10 @@
         <v>894</v>
       </c>
       <c r="H270" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="I270" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
@@ -11234,10 +11231,10 @@
         <v>1025</v>
       </c>
       <c r="H271" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="I271" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -11260,10 +11257,10 @@
         <v>1026</v>
       </c>
       <c r="H272" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="I272" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
@@ -11286,10 +11283,10 @@
         <v>1027</v>
       </c>
       <c r="H273" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="I273" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
@@ -11315,7 +11312,7 @@
         <v>1207</v>
       </c>
       <c r="I274" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
@@ -11341,7 +11338,7 @@
         <v>1160</v>
       </c>
       <c r="I275" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
@@ -11358,7 +11355,7 @@
         <v>279</v>
       </c>
       <c r="E276" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F276" t="s">
         <v>693</v>
@@ -11370,7 +11367,7 @@
         <v>1160</v>
       </c>
       <c r="I276" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
@@ -11396,7 +11393,7 @@
         <v>1207</v>
       </c>
       <c r="I277" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
@@ -11422,7 +11419,7 @@
         <v>1160</v>
       </c>
       <c r="I278" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
@@ -11448,7 +11445,7 @@
         <v>1160</v>
       </c>
       <c r="I279" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
@@ -11474,7 +11471,7 @@
         <v>1160</v>
       </c>
       <c r="I280" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
@@ -11500,10 +11497,10 @@
         <v>1161</v>
       </c>
       <c r="I281" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J281" t="s">
         <v>1214</v>
-      </c>
-      <c r="J281" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
@@ -11529,10 +11526,10 @@
         <v>1161</v>
       </c>
       <c r="I282" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J282" t="s">
         <v>1214</v>
-      </c>
-      <c r="J282" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
@@ -11558,10 +11555,10 @@
         <v>1161</v>
       </c>
       <c r="I283" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J283" t="s">
         <v>1214</v>
-      </c>
-      <c r="J283" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
@@ -11587,7 +11584,7 @@
         <v>1162</v>
       </c>
       <c r="I284" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
@@ -11613,7 +11610,7 @@
         <v>1163</v>
       </c>
       <c r="I285" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
@@ -11639,7 +11636,7 @@
         <v>1164</v>
       </c>
       <c r="I286" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
@@ -11665,7 +11662,7 @@
         <v>1163</v>
       </c>
       <c r="I287" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
@@ -11691,10 +11688,10 @@
         <v>1161</v>
       </c>
       <c r="I288" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J288" t="s">
         <v>1214</v>
-      </c>
-      <c r="J288" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
@@ -11720,7 +11717,7 @@
         <v>1163</v>
       </c>
       <c r="I289" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
@@ -11746,7 +11743,7 @@
         <v>1165</v>
       </c>
       <c r="I290" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
@@ -11772,7 +11769,7 @@
         <v>1162</v>
       </c>
       <c r="I291" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
@@ -11798,10 +11795,10 @@
         <v>1161</v>
       </c>
       <c r="I292" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J292" t="s">
         <v>1214</v>
-      </c>
-      <c r="J292" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
@@ -11827,7 +11824,7 @@
         <v>1163</v>
       </c>
       <c r="I293" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
@@ -11850,10 +11847,10 @@
         <v>1040</v>
       </c>
       <c r="H294" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="I294" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
@@ -11879,7 +11876,7 @@
         <v>1166</v>
       </c>
       <c r="I295" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
@@ -11905,7 +11902,7 @@
         <v>1167</v>
       </c>
       <c r="I296" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
@@ -11931,7 +11928,7 @@
         <v>1167</v>
       </c>
       <c r="I297" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
@@ -11954,10 +11951,10 @@
         <v>839</v>
       </c>
       <c r="H298" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="I298" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
@@ -11980,10 +11977,10 @@
         <v>943</v>
       </c>
       <c r="H299" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="I299" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
@@ -12009,7 +12006,7 @@
         <v>1166</v>
       </c>
       <c r="I300" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
@@ -12032,10 +12029,10 @@
         <v>940</v>
       </c>
       <c r="H301" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="I301" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
@@ -12061,7 +12058,7 @@
         <v>1167</v>
       </c>
       <c r="I302" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
@@ -12087,7 +12084,7 @@
         <v>1168</v>
       </c>
       <c r="I303" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.25">
@@ -12113,7 +12110,7 @@
         <v>1166</v>
       </c>
       <c r="I304" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
@@ -12139,7 +12136,7 @@
         <v>1169</v>
       </c>
       <c r="I305" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
@@ -12162,10 +12159,10 @@
         <v>1045</v>
       </c>
       <c r="H306" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="I306" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
@@ -12188,10 +12185,10 @@
         <v>926</v>
       </c>
       <c r="H307" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="I307" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
@@ -12217,10 +12214,10 @@
         <v>956</v>
       </c>
       <c r="H308" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="I308" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
@@ -12246,7 +12243,7 @@
         <v>1170</v>
       </c>
       <c r="I309" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
@@ -12269,10 +12266,10 @@
         <v>893</v>
       </c>
       <c r="H310" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="I310" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
@@ -12295,10 +12292,10 @@
         <v>853</v>
       </c>
       <c r="H311" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="I311" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
@@ -12324,7 +12321,7 @@
         <v>1167</v>
       </c>
       <c r="I312" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
@@ -12350,7 +12347,7 @@
         <v>1167</v>
       </c>
       <c r="I313" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
@@ -12376,7 +12373,7 @@
         <v>1170</v>
       </c>
       <c r="I314" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
@@ -12402,7 +12399,7 @@
         <v>1171</v>
       </c>
       <c r="I315" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
@@ -12431,7 +12428,7 @@
         <v>1172</v>
       </c>
       <c r="I316" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
@@ -12457,7 +12454,7 @@
         <v>1171</v>
       </c>
       <c r="I317" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
@@ -12483,7 +12480,7 @@
         <v>1173</v>
       </c>
       <c r="I318" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
@@ -12509,7 +12506,7 @@
         <v>1173</v>
       </c>
       <c r="I319" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
@@ -12535,7 +12532,7 @@
         <v>1173</v>
       </c>
       <c r="I320" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
@@ -12561,7 +12558,7 @@
         <v>1174</v>
       </c>
       <c r="I321" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
@@ -12587,7 +12584,7 @@
         <v>1175</v>
       </c>
       <c r="I322" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
@@ -12613,7 +12610,7 @@
         <v>1175</v>
       </c>
       <c r="I323" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
@@ -12627,7 +12624,7 @@
         <v>327</v>
       </c>
       <c r="E324" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F324" t="s">
         <v>741</v>
@@ -12639,7 +12636,7 @@
         <v>1176</v>
       </c>
       <c r="I324" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
@@ -12653,7 +12650,7 @@
         <v>328</v>
       </c>
       <c r="E325" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F325" t="s">
         <v>742</v>
@@ -12665,7 +12662,7 @@
         <v>1176</v>
       </c>
       <c r="I325" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
@@ -12679,7 +12676,7 @@
         <v>329</v>
       </c>
       <c r="E326" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F326" t="s">
         <v>743</v>
@@ -12691,7 +12688,7 @@
         <v>1176</v>
       </c>
       <c r="I326" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
@@ -12705,7 +12702,7 @@
         <v>330</v>
       </c>
       <c r="E327" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F327" t="s">
         <v>744</v>
@@ -12717,7 +12714,7 @@
         <v>1177</v>
       </c>
       <c r="I327" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
@@ -12731,7 +12728,7 @@
         <v>331</v>
       </c>
       <c r="E328" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F328" t="s">
         <v>745</v>
@@ -12743,7 +12740,7 @@
         <v>1177</v>
       </c>
       <c r="I328" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
@@ -12757,7 +12754,7 @@
         <v>332</v>
       </c>
       <c r="E329" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F329" t="s">
         <v>746</v>
@@ -12769,7 +12766,7 @@
         <v>1177</v>
       </c>
       <c r="I329" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
@@ -12783,7 +12780,7 @@
         <v>333</v>
       </c>
       <c r="E330" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F330" t="s">
         <v>747</v>
@@ -12795,7 +12792,7 @@
         <v>1177</v>
       </c>
       <c r="I330" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
@@ -12809,7 +12806,7 @@
         <v>334</v>
       </c>
       <c r="E331" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F331" t="s">
         <v>748</v>
@@ -12821,7 +12818,7 @@
         <v>1178</v>
       </c>
       <c r="I331" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
@@ -12835,7 +12832,7 @@
         <v>335</v>
       </c>
       <c r="E332" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F332" t="s">
         <v>749</v>
@@ -12847,7 +12844,7 @@
         <v>1178</v>
       </c>
       <c r="I332" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
@@ -12861,7 +12858,7 @@
         <v>336</v>
       </c>
       <c r="E333" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F333" t="s">
         <v>750</v>
@@ -12870,10 +12867,10 @@
         <v>911</v>
       </c>
       <c r="H333" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="I333" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
@@ -12887,7 +12884,7 @@
         <v>337</v>
       </c>
       <c r="E334" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F334" t="s">
         <v>751</v>
@@ -12896,10 +12893,10 @@
         <v>911</v>
       </c>
       <c r="H334" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="I334" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
@@ -12913,7 +12910,7 @@
         <v>338</v>
       </c>
       <c r="E335" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F335" t="s">
         <v>752</v>
@@ -12922,10 +12919,10 @@
         <v>955</v>
       </c>
       <c r="H335" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="I335" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
@@ -12942,7 +12939,7 @@
         <v>339</v>
       </c>
       <c r="E336" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F336" t="s">
         <v>753</v>
@@ -12954,7 +12951,7 @@
         <v>1179</v>
       </c>
       <c r="I336" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.25">
@@ -12971,7 +12968,7 @@
         <v>340</v>
       </c>
       <c r="E337" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F337" t="s">
         <v>754</v>
@@ -12983,7 +12980,7 @@
         <v>1179</v>
       </c>
       <c r="I337" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.25">
@@ -13000,7 +12997,7 @@
         <v>341</v>
       </c>
       <c r="E338" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F338" t="s">
         <v>755</v>
@@ -13012,7 +13009,7 @@
         <v>1179</v>
       </c>
       <c r="I338" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.25">
@@ -13029,7 +13026,7 @@
         <v>342</v>
       </c>
       <c r="E339" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F339" t="s">
         <v>756</v>
@@ -13041,7 +13038,7 @@
         <v>1180</v>
       </c>
       <c r="I339" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.25">
@@ -13055,7 +13052,7 @@
         <v>343</v>
       </c>
       <c r="E340" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F340" t="s">
         <v>757</v>
@@ -13067,7 +13064,7 @@
         <v>1180</v>
       </c>
       <c r="I340" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.25">
@@ -13081,7 +13078,7 @@
         <v>344</v>
       </c>
       <c r="E341" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F341" t="s">
         <v>758</v>
@@ -13093,13 +13090,13 @@
         <v>1180</v>
       </c>
       <c r="I341" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="K341" t="s">
         <v>1181</v>
       </c>
       <c r="L341" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.25">
@@ -13113,7 +13110,7 @@
         <v>345</v>
       </c>
       <c r="E342" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F342" t="s">
         <v>759</v>
@@ -13125,7 +13122,7 @@
         <v>1180</v>
       </c>
       <c r="I342" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.25">
@@ -13139,7 +13136,7 @@
         <v>346</v>
       </c>
       <c r="E343" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F343" t="s">
         <v>760</v>
@@ -13151,7 +13148,7 @@
         <v>1181</v>
       </c>
       <c r="I343" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.25">
@@ -13165,7 +13162,7 @@
         <v>347</v>
       </c>
       <c r="E344" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F344" t="s">
         <v>761</v>
@@ -13177,7 +13174,7 @@
         <v>1181</v>
       </c>
       <c r="I344" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.25">
@@ -13191,7 +13188,7 @@
         <v>348</v>
       </c>
       <c r="E345" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F345" t="s">
         <v>762</v>
@@ -13203,7 +13200,7 @@
         <v>1181</v>
       </c>
       <c r="I345" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.25">
@@ -13217,7 +13214,7 @@
         <v>349</v>
       </c>
       <c r="E346" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F346" t="s">
         <v>763</v>
@@ -13229,7 +13226,7 @@
         <v>1182</v>
       </c>
       <c r="I346" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.25">
@@ -13243,7 +13240,7 @@
         <v>350</v>
       </c>
       <c r="E347" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F347" t="s">
         <v>764</v>
@@ -13255,7 +13252,7 @@
         <v>1182</v>
       </c>
       <c r="I347" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.25">
@@ -13269,7 +13266,7 @@
         <v>351</v>
       </c>
       <c r="E348" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F348" t="s">
         <v>765</v>
@@ -13281,7 +13278,7 @@
         <v>1183</v>
       </c>
       <c r="I348" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.25">
@@ -13295,7 +13292,7 @@
         <v>352</v>
       </c>
       <c r="E349" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F349" t="s">
         <v>766</v>
@@ -13307,7 +13304,7 @@
         <v>1158</v>
       </c>
       <c r="I349" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.25">
@@ -13321,7 +13318,7 @@
         <v>353</v>
       </c>
       <c r="E350" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F350" t="s">
         <v>767</v>
@@ -13333,7 +13330,7 @@
         <v>1158</v>
       </c>
       <c r="I350" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.25">
@@ -13347,7 +13344,7 @@
         <v>354</v>
       </c>
       <c r="E351" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F351" t="s">
         <v>768</v>
@@ -13359,7 +13356,7 @@
         <v>1158</v>
       </c>
       <c r="I351" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.25">
@@ -13373,7 +13370,7 @@
         <v>355</v>
       </c>
       <c r="E352" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F352" t="s">
         <v>769</v>
@@ -13385,7 +13382,7 @@
         <v>1158</v>
       </c>
       <c r="I352" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
@@ -13399,7 +13396,7 @@
         <v>356</v>
       </c>
       <c r="E353" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F353" t="s">
         <v>770</v>
@@ -13411,7 +13408,7 @@
         <v>1158</v>
       </c>
       <c r="I353" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
@@ -13425,7 +13422,7 @@
         <v>357</v>
       </c>
       <c r="E354" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F354" t="s">
         <v>771</v>
@@ -13437,7 +13434,7 @@
         <v>1184</v>
       </c>
       <c r="I354" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
@@ -13451,7 +13448,7 @@
         <v>358</v>
       </c>
       <c r="E355" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F355" t="s">
         <v>772</v>
@@ -13463,7 +13460,7 @@
         <v>1184</v>
       </c>
       <c r="I355" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
@@ -13477,7 +13474,7 @@
         <v>359</v>
       </c>
       <c r="E356" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F356" t="s">
         <v>773</v>
@@ -13489,7 +13486,7 @@
         <v>1184</v>
       </c>
       <c r="I356" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
@@ -13503,7 +13500,7 @@
         <v>360</v>
       </c>
       <c r="E357" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F357" t="s">
         <v>774</v>
@@ -13515,7 +13512,7 @@
         <v>1184</v>
       </c>
       <c r="I357" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
@@ -13529,7 +13526,7 @@
         <v>361</v>
       </c>
       <c r="E358" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F358" t="s">
         <v>775</v>
@@ -13541,7 +13538,7 @@
         <v>1184</v>
       </c>
       <c r="I358" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
@@ -13555,7 +13552,7 @@
         <v>362</v>
       </c>
       <c r="E359" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F359" t="s">
         <v>776</v>
@@ -13567,7 +13564,7 @@
         <v>1184</v>
       </c>
       <c r="I359" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
@@ -13581,7 +13578,7 @@
         <v>363</v>
       </c>
       <c r="E360" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F360" t="s">
         <v>777</v>
@@ -13593,7 +13590,7 @@
         <v>1184</v>
       </c>
       <c r="I360" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
@@ -13607,7 +13604,7 @@
         <v>364</v>
       </c>
       <c r="E361" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F361" t="s">
         <v>778</v>
@@ -13619,7 +13616,7 @@
         <v>1185</v>
       </c>
       <c r="I361" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
@@ -13633,7 +13630,7 @@
         <v>365</v>
       </c>
       <c r="E362" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F362" t="s">
         <v>779</v>
@@ -13645,7 +13642,7 @@
         <v>1185</v>
       </c>
       <c r="I362" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
@@ -13659,7 +13656,7 @@
         <v>366</v>
       </c>
       <c r="E363" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F363" t="s">
         <v>780</v>
@@ -13671,7 +13668,7 @@
         <v>1185</v>
       </c>
       <c r="I363" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
@@ -13685,7 +13682,7 @@
         <v>367</v>
       </c>
       <c r="E364" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F364" t="s">
         <v>781</v>
@@ -13697,7 +13694,7 @@
         <v>1186</v>
       </c>
       <c r="I364" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
@@ -13714,7 +13711,7 @@
         <v>368</v>
       </c>
       <c r="E365" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F365" t="s">
         <v>782</v>
@@ -13726,7 +13723,7 @@
         <v>1187</v>
       </c>
       <c r="I365" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
@@ -13743,7 +13740,7 @@
         <v>369</v>
       </c>
       <c r="E366" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F366" t="s">
         <v>783</v>
@@ -13755,7 +13752,7 @@
         <v>1187</v>
       </c>
       <c r="I366" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
@@ -13772,7 +13769,7 @@
         <v>370</v>
       </c>
       <c r="E367" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F367" t="s">
         <v>784</v>
@@ -13784,7 +13781,7 @@
         <v>1187</v>
       </c>
       <c r="I367" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.25">
@@ -13801,7 +13798,7 @@
         <v>371</v>
       </c>
       <c r="E368" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F368" t="s">
         <v>785</v>
@@ -13813,7 +13810,7 @@
         <v>1187</v>
       </c>
       <c r="I368" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.25">
@@ -13830,7 +13827,7 @@
         <v>372</v>
       </c>
       <c r="E369" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F369" t="s">
         <v>786</v>
@@ -13842,7 +13839,7 @@
         <v>1188</v>
       </c>
       <c r="I369" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.25">
@@ -13859,7 +13856,7 @@
         <v>373</v>
       </c>
       <c r="E370" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F370" t="s">
         <v>787</v>
@@ -13871,7 +13868,7 @@
         <v>1188</v>
       </c>
       <c r="I370" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.25">
@@ -13888,7 +13885,7 @@
         <v>374</v>
       </c>
       <c r="E371" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F371" t="s">
         <v>788</v>
@@ -13900,7 +13897,7 @@
         <v>1188</v>
       </c>
       <c r="I371" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.25">
@@ -13914,7 +13911,7 @@
         <v>375</v>
       </c>
       <c r="E372" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F372" t="s">
         <v>789</v>
@@ -13926,7 +13923,7 @@
         <v>1189</v>
       </c>
       <c r="I372" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.25">
@@ -13940,7 +13937,7 @@
         <v>376</v>
       </c>
       <c r="E373" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F373" t="s">
         <v>790</v>
@@ -13952,7 +13949,7 @@
         <v>1189</v>
       </c>
       <c r="I373" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.25">
@@ -13966,7 +13963,7 @@
         <v>377</v>
       </c>
       <c r="E374" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F374" t="s">
         <v>791</v>
@@ -13978,7 +13975,7 @@
         <v>1208</v>
       </c>
       <c r="I374" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.25">
@@ -13992,7 +13989,7 @@
         <v>378</v>
       </c>
       <c r="E375" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F375" t="s">
         <v>792</v>
@@ -14004,7 +14001,7 @@
         <v>1208</v>
       </c>
       <c r="I375" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.25">
@@ -14018,7 +14015,7 @@
         <v>379</v>
       </c>
       <c r="E376" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F376" t="s">
         <v>793</v>
@@ -14030,7 +14027,7 @@
         <v>1190</v>
       </c>
       <c r="I376" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.25">
@@ -14044,7 +14041,7 @@
         <v>380</v>
       </c>
       <c r="E377" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F377" t="s">
         <v>794</v>
@@ -14056,7 +14053,7 @@
         <v>1191</v>
       </c>
       <c r="I377" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
@@ -14070,7 +14067,7 @@
         <v>381</v>
       </c>
       <c r="E378" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F378" t="s">
         <v>795</v>
@@ -14082,7 +14079,7 @@
         <v>1191</v>
       </c>
       <c r="I378" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.25">
@@ -14096,7 +14093,7 @@
         <v>382</v>
       </c>
       <c r="E379" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F379" t="s">
         <v>796</v>
@@ -14108,7 +14105,7 @@
         <v>1191</v>
       </c>
       <c r="I379" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.25">
@@ -14122,7 +14119,7 @@
         <v>383</v>
       </c>
       <c r="E380" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F380" t="s">
         <v>797</v>
@@ -14134,7 +14131,7 @@
         <v>1191</v>
       </c>
       <c r="I380" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.25">
@@ -14148,7 +14145,7 @@
         <v>384</v>
       </c>
       <c r="E381" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F381" t="s">
         <v>798</v>
@@ -14160,7 +14157,7 @@
         <v>1191</v>
       </c>
       <c r="I381" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.25">
@@ -14174,7 +14171,7 @@
         <v>385</v>
       </c>
       <c r="E382" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F382" t="s">
         <v>799</v>
@@ -14183,10 +14180,10 @@
         <v>839</v>
       </c>
       <c r="H382" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I382" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.25">
@@ -14200,7 +14197,7 @@
         <v>386</v>
       </c>
       <c r="E383" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F383" t="s">
         <v>800</v>
@@ -14209,10 +14206,10 @@
         <v>839</v>
       </c>
       <c r="H383" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I383" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.25">
@@ -14226,7 +14223,7 @@
         <v>387</v>
       </c>
       <c r="E384" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F384" t="s">
         <v>801</v>
@@ -14238,7 +14235,7 @@
         <v>1108</v>
       </c>
       <c r="I384" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.25">
@@ -14252,7 +14249,7 @@
         <v>388</v>
       </c>
       <c r="E385" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F385" t="s">
         <v>476</v>
@@ -14264,7 +14261,7 @@
         <v>1108</v>
       </c>
       <c r="I385" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.25">
@@ -14278,7 +14275,7 @@
         <v>389</v>
       </c>
       <c r="E386" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F386" t="s">
         <v>802</v>
@@ -14290,7 +14287,7 @@
         <v>1108</v>
       </c>
       <c r="I386" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.25">
@@ -14304,7 +14301,7 @@
         <v>390</v>
       </c>
       <c r="E387" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F387" t="s">
         <v>803</v>
@@ -14316,10 +14313,10 @@
         <v>1210</v>
       </c>
       <c r="I387" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J387" t="s">
         <v>1214</v>
-      </c>
-      <c r="J387" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.25">
@@ -14333,7 +14330,7 @@
         <v>391</v>
       </c>
       <c r="E388" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F388" t="s">
         <v>804</v>
@@ -14345,10 +14342,10 @@
         <v>1210</v>
       </c>
       <c r="I388" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J388" t="s">
         <v>1214</v>
-      </c>
-      <c r="J388" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.25">
@@ -14362,7 +14359,7 @@
         <v>392</v>
       </c>
       <c r="E389" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F389" t="s">
         <v>805</v>
@@ -14374,10 +14371,10 @@
         <v>1210</v>
       </c>
       <c r="I389" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J389" t="s">
         <v>1214</v>
-      </c>
-      <c r="J389" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.25">
@@ -14391,7 +14388,7 @@
         <v>393</v>
       </c>
       <c r="E390" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F390" t="s">
         <v>806</v>
@@ -14403,10 +14400,10 @@
         <v>1210</v>
       </c>
       <c r="I390" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J390" t="s">
         <v>1214</v>
-      </c>
-      <c r="J390" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.25">
@@ -14420,7 +14417,7 @@
         <v>394</v>
       </c>
       <c r="E391" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F391" t="s">
         <v>807</v>
@@ -14432,10 +14429,10 @@
         <v>1210</v>
       </c>
       <c r="I391" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J391" t="s">
         <v>1214</v>
-      </c>
-      <c r="J391" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.25">
@@ -14449,7 +14446,7 @@
         <v>395</v>
       </c>
       <c r="E392" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F392" t="s">
         <v>808</v>
@@ -14461,10 +14458,10 @@
         <v>1210</v>
       </c>
       <c r="I392" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J392" t="s">
         <v>1214</v>
-      </c>
-      <c r="J392" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.25">
@@ -14478,7 +14475,7 @@
         <v>396</v>
       </c>
       <c r="E393" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F393" t="s">
         <v>809</v>
@@ -14490,7 +14487,7 @@
         <v>1192</v>
       </c>
       <c r="I393" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.25">
@@ -14504,7 +14501,7 @@
         <v>397</v>
       </c>
       <c r="E394" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F394" t="s">
         <v>810</v>
@@ -14516,7 +14513,7 @@
         <v>1192</v>
       </c>
       <c r="I394" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.25">
@@ -14530,7 +14527,7 @@
         <v>398</v>
       </c>
       <c r="E395" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F395" t="s">
         <v>811</v>
@@ -14542,7 +14539,7 @@
         <v>1192</v>
       </c>
       <c r="I395" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.25">
@@ -14556,7 +14553,7 @@
         <v>399</v>
       </c>
       <c r="E396" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F396" t="s">
         <v>812</v>
@@ -14568,7 +14565,7 @@
         <v>1192</v>
       </c>
       <c r="I396" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.25">
@@ -14582,7 +14579,7 @@
         <v>400</v>
       </c>
       <c r="E397" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F397" t="s">
         <v>813</v>
@@ -14594,7 +14591,7 @@
         <v>1192</v>
       </c>
       <c r="I397" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.25">
@@ -14608,7 +14605,7 @@
         <v>401</v>
       </c>
       <c r="E398" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F398" t="s">
         <v>814</v>
@@ -14620,7 +14617,7 @@
         <v>1192</v>
       </c>
       <c r="I398" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.25">
@@ -14634,7 +14631,7 @@
         <v>402</v>
       </c>
       <c r="E399" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F399" t="s">
         <v>815</v>
@@ -14646,7 +14643,7 @@
         <v>1193</v>
       </c>
       <c r="I399" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.25">
@@ -14660,7 +14657,7 @@
         <v>403</v>
       </c>
       <c r="E400" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F400" t="s">
         <v>816</v>
@@ -14672,7 +14669,7 @@
         <v>1194</v>
       </c>
       <c r="I400" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.25">
@@ -14686,7 +14683,7 @@
         <v>404</v>
       </c>
       <c r="E401" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F401" t="s">
         <v>817</v>
@@ -14698,7 +14695,7 @@
         <v>1195</v>
       </c>
       <c r="I401" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.25">
@@ -14712,7 +14709,7 @@
         <v>405</v>
       </c>
       <c r="E402" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F402" t="s">
         <v>818</v>
@@ -14724,7 +14721,7 @@
         <v>1196</v>
       </c>
       <c r="I402" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.25">
@@ -14738,7 +14735,7 @@
         <v>406</v>
       </c>
       <c r="E403" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F403" t="s">
         <v>819</v>
@@ -14750,7 +14747,7 @@
         <v>1196</v>
       </c>
       <c r="I403" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.25">
@@ -14764,7 +14761,7 @@
         <v>407</v>
       </c>
       <c r="E404" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F404" t="s">
         <v>820</v>
@@ -14776,7 +14773,7 @@
         <v>1197</v>
       </c>
       <c r="I404" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.25">
@@ -14790,7 +14787,7 @@
         <v>408</v>
       </c>
       <c r="E405" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F405" t="s">
         <v>821</v>
@@ -14802,7 +14799,7 @@
         <v>1197</v>
       </c>
       <c r="I405" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.25">
@@ -14816,7 +14813,7 @@
         <v>409</v>
       </c>
       <c r="E406" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F406" t="s">
         <v>822</v>
@@ -14828,7 +14825,7 @@
         <v>1197</v>
       </c>
       <c r="I406" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.25">
@@ -14842,7 +14839,7 @@
         <v>410</v>
       </c>
       <c r="E407" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F407" t="s">
         <v>823</v>
@@ -14854,7 +14851,7 @@
         <v>1197</v>
       </c>
       <c r="I407" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.25">
@@ -14868,7 +14865,7 @@
         <v>411</v>
       </c>
       <c r="E408" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F408" t="s">
         <v>824</v>
@@ -14880,7 +14877,7 @@
         <v>1198</v>
       </c>
       <c r="I408" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.25">
@@ -14894,7 +14891,7 @@
         <v>412</v>
       </c>
       <c r="E409" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F409" t="s">
         <v>825</v>
@@ -14906,7 +14903,7 @@
         <v>1198</v>
       </c>
       <c r="I409" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.25">
@@ -14920,7 +14917,7 @@
         <v>413</v>
       </c>
       <c r="E410" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F410" t="s">
         <v>826</v>
@@ -14932,7 +14929,7 @@
         <v>1199</v>
       </c>
       <c r="I410" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.25">
@@ -14946,7 +14943,7 @@
         <v>414</v>
       </c>
       <c r="E411" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F411" t="s">
         <v>827</v>
@@ -14958,7 +14955,7 @@
         <v>1200</v>
       </c>
       <c r="I411" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.25">
@@ -14972,7 +14969,7 @@
         <v>415</v>
       </c>
       <c r="E412" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F412" t="s">
         <v>828</v>
@@ -14984,7 +14981,7 @@
         <v>1200</v>
       </c>
       <c r="I412" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.25">
@@ -15001,7 +14998,7 @@
         <v>416</v>
       </c>
       <c r="E413" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F413" t="s">
         <v>829</v>
@@ -15013,7 +15010,7 @@
         <v>1201</v>
       </c>
       <c r="I413" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.25">
@@ -15027,7 +15024,7 @@
         <v>417</v>
       </c>
       <c r="E414" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F414" t="s">
         <v>830</v>
@@ -15039,7 +15036,7 @@
         <v>1201</v>
       </c>
       <c r="I414" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.25">
@@ -15056,7 +15053,7 @@
         <v>418</v>
       </c>
       <c r="E415" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F415" t="s">
         <v>831</v>
@@ -15068,7 +15065,7 @@
         <v>1201</v>
       </c>
       <c r="I415" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.25">
@@ -15082,7 +15079,7 @@
         <v>419</v>
       </c>
       <c r="E416" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F416" t="s">
         <v>832</v>
@@ -15094,7 +15091,7 @@
         <v>1201</v>
       </c>
       <c r="I416" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.25">
@@ -15108,7 +15105,7 @@
         <v>420</v>
       </c>
       <c r="E417" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F417" t="s">
         <v>833</v>
@@ -15120,7 +15117,7 @@
         <v>1202</v>
       </c>
       <c r="I417" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
   </sheetData>

--- a/data-migration/xlsx_1900-/1910_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1910_Winter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED27184-1E96-43E8-844C-5A362B93D3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1539D7A2-0D81-4667-BF46-98195A82A30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="18240" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="1255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="1254">
   <si>
     <t>Winter</t>
   </si>
@@ -3695,9 +3695,6 @@
     <t>H</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>bachmann_g</t>
   </si>
   <si>
@@ -3746,9 +3743,6 @@
     <t>wild_o</t>
   </si>
   <si>
-    <t>Direktor</t>
-  </si>
-  <si>
     <t>gysi_a</t>
   </si>
   <si>
@@ -3798,6 +3792,9 @@
   </si>
   <si>
     <t>dequervain_a</t>
+  </si>
+  <si>
+    <t>Prof</t>
   </si>
 </sst>
 </file>
@@ -4149,8 +4146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E276" sqref="E276"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H180" sqref="H180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5635,7 +5632,7 @@
         <v>1108</v>
       </c>
       <c r="I56" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -5661,7 +5658,7 @@
         <v>1108</v>
       </c>
       <c r="I57" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -5710,7 +5707,7 @@
         <v>885</v>
       </c>
       <c r="H59" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="I59" t="s">
         <v>1215</v>
@@ -5736,7 +5733,7 @@
         <v>855</v>
       </c>
       <c r="H60" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="I60" t="s">
         <v>1215</v>
@@ -6048,7 +6045,7 @@
         <v>896</v>
       </c>
       <c r="H72" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="I72" t="s">
         <v>1215</v>
@@ -6074,7 +6071,7 @@
         <v>840</v>
       </c>
       <c r="H73" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="I73" t="s">
         <v>1215</v>
@@ -6100,7 +6097,7 @@
         <v>897</v>
       </c>
       <c r="H74" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="I74" t="s">
         <v>1215</v>
@@ -6386,7 +6383,7 @@
         <v>907</v>
       </c>
       <c r="H85" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="I85" t="s">
         <v>1215</v>
@@ -6412,7 +6409,7 @@
         <v>902</v>
       </c>
       <c r="H86" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="I86" t="s">
         <v>1215</v>
@@ -6634,7 +6631,7 @@
         <v>897</v>
       </c>
       <c r="H95" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I95" t="s">
         <v>1215</v>
@@ -6660,7 +6657,7 @@
         <v>914</v>
       </c>
       <c r="H96" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I96" t="s">
         <v>1215</v>
@@ -6686,7 +6683,7 @@
         <v>915</v>
       </c>
       <c r="H97" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I97" t="s">
         <v>1215</v>
@@ -6712,7 +6709,7 @@
         <v>913</v>
       </c>
       <c r="H98" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I98" t="s">
         <v>1215</v>
@@ -6764,7 +6761,7 @@
         <v>917</v>
       </c>
       <c r="H100" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I100" t="s">
         <v>1213</v>
@@ -6790,7 +6787,7 @@
         <v>918</v>
       </c>
       <c r="H101" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I101" t="s">
         <v>1213</v>
@@ -6816,7 +6813,7 @@
         <v>919</v>
       </c>
       <c r="H102" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I102" t="s">
         <v>1213</v>
@@ -6842,7 +6839,7 @@
         <v>920</v>
       </c>
       <c r="H103" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I103" t="s">
         <v>1213</v>
@@ -6868,7 +6865,7 @@
         <v>902</v>
       </c>
       <c r="H104" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I104" t="s">
         <v>1213</v>
@@ -6894,7 +6891,7 @@
         <v>921</v>
       </c>
       <c r="H105" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="I105" t="s">
         <v>1213</v>
@@ -6923,7 +6920,7 @@
         <v>922</v>
       </c>
       <c r="H106" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="I106" t="s">
         <v>1213</v>
@@ -7056,7 +7053,7 @@
         <v>927</v>
       </c>
       <c r="H111" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="I111" t="s">
         <v>1215</v>
@@ -7082,7 +7079,7 @@
         <v>928</v>
       </c>
       <c r="H112" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="I112" t="s">
         <v>1215</v>
@@ -7108,7 +7105,7 @@
         <v>911</v>
       </c>
       <c r="H113" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="I113" t="s">
         <v>1217</v>
@@ -7134,7 +7131,7 @@
         <v>911</v>
       </c>
       <c r="H114" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="I114" t="s">
         <v>1217</v>
@@ -7160,7 +7157,7 @@
         <v>839</v>
       </c>
       <c r="H115" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="I115" t="s">
         <v>1217</v>
@@ -7290,7 +7287,7 @@
         <v>932</v>
       </c>
       <c r="H120" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="I120" t="s">
         <v>1217</v>
@@ -7316,7 +7313,7 @@
         <v>839</v>
       </c>
       <c r="H121" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="I121" t="s">
         <v>1217</v>
@@ -7342,7 +7339,7 @@
         <v>933</v>
       </c>
       <c r="H122" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="I122" t="s">
         <v>1217</v>
@@ -7472,7 +7469,7 @@
         <v>935</v>
       </c>
       <c r="H127" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="I127" t="s">
         <v>1217</v>
@@ -7498,7 +7495,7 @@
         <v>936</v>
       </c>
       <c r="H128" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="I128" t="s">
         <v>1217</v>
@@ -7524,7 +7521,7 @@
         <v>839</v>
       </c>
       <c r="H129" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="I129" t="s">
         <v>1217</v>
@@ -8018,7 +8015,7 @@
         <v>839</v>
       </c>
       <c r="H148" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I148" t="s">
         <v>1217</v>
@@ -8226,7 +8223,7 @@
         <v>948</v>
       </c>
       <c r="H156" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I156" t="s">
         <v>1217</v>
@@ -8356,7 +8353,7 @@
         <v>885</v>
       </c>
       <c r="H161" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="I161" t="s">
         <v>1219</v>
@@ -8668,7 +8665,7 @@
         <v>956</v>
       </c>
       <c r="H173" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="I173" t="s">
         <v>1217</v>
@@ -8694,7 +8691,7 @@
         <v>957</v>
       </c>
       <c r="H174" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="I174" t="s">
         <v>1217</v>
@@ -8720,7 +8717,7 @@
         <v>911</v>
       </c>
       <c r="H175" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="I175" t="s">
         <v>1217</v>
@@ -8749,7 +8746,7 @@
         <v>1142</v>
       </c>
       <c r="I176" t="s">
-        <v>1237</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -8775,7 +8772,7 @@
         <v>1142</v>
       </c>
       <c r="I177" t="s">
-        <v>1237</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
@@ -8801,7 +8798,7 @@
         <v>1142</v>
       </c>
       <c r="I178" t="s">
-        <v>1237</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
@@ -8827,7 +8824,7 @@
         <v>1143</v>
       </c>
       <c r="I179" t="s">
-        <v>1220</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
@@ -8853,7 +8850,7 @@
         <v>1143</v>
       </c>
       <c r="I180" t="s">
-        <v>1220</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
@@ -8879,7 +8876,7 @@
         <v>1143</v>
       </c>
       <c r="I181" t="s">
-        <v>1220</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -8905,7 +8902,7 @@
         <v>1143</v>
       </c>
       <c r="I182" t="s">
-        <v>1220</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
@@ -8928,10 +8925,10 @@
         <v>963</v>
       </c>
       <c r="H183" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="I183" t="s">
-        <v>1220</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
@@ -8954,10 +8951,10 @@
         <v>964</v>
       </c>
       <c r="H184" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="I184" t="s">
-        <v>1220</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -9879,7 +9876,7 @@
         <v>993</v>
       </c>
       <c r="H219" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="I219" t="s">
         <v>1215</v>
@@ -9905,7 +9902,7 @@
         <v>994</v>
       </c>
       <c r="H220" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="I220" t="s">
         <v>1217</v>
@@ -9931,7 +9928,7 @@
         <v>995</v>
       </c>
       <c r="H221" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="I221" t="s">
         <v>1215</v>
@@ -10009,7 +10006,7 @@
         <v>997</v>
       </c>
       <c r="H224" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="I224" t="s">
         <v>1215</v>
@@ -10269,7 +10266,7 @@
         <v>839</v>
       </c>
       <c r="H234" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="I234" t="s">
         <v>1213</v>
@@ -10399,7 +10396,7 @@
         <v>1009</v>
       </c>
       <c r="H239" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="I239" t="s">
         <v>1213</v>
@@ -10425,7 +10422,7 @@
         <v>1010</v>
       </c>
       <c r="H240" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="I240" t="s">
         <v>1213</v>
@@ -10451,7 +10448,7 @@
         <v>839</v>
       </c>
       <c r="H241" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="I241" t="s">
         <v>1213</v>
@@ -10529,7 +10526,7 @@
         <v>1013</v>
       </c>
       <c r="H244" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="I244" t="s">
         <v>1213</v>
@@ -10581,7 +10578,7 @@
         <v>940</v>
       </c>
       <c r="H246" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="I246" t="s">
         <v>1217</v>
@@ -10607,7 +10604,7 @@
         <v>1015</v>
       </c>
       <c r="H247" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="I247" t="s">
         <v>1213</v>
@@ -10659,7 +10656,7 @@
         <v>1017</v>
       </c>
       <c r="H249" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="I249" t="s">
         <v>1217</v>
@@ -10685,7 +10682,7 @@
         <v>869</v>
       </c>
       <c r="H250" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="I250" t="s">
         <v>1217</v>
@@ -10763,7 +10760,7 @@
         <v>1018</v>
       </c>
       <c r="H253" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="I253" t="s">
         <v>1213</v>
@@ -10789,7 +10786,7 @@
         <v>940</v>
       </c>
       <c r="H254" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="I254" t="s">
         <v>1213</v>
@@ -10919,7 +10916,7 @@
         <v>889</v>
       </c>
       <c r="H259" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="I259" t="s">
         <v>1217</v>
@@ -10971,7 +10968,7 @@
         <v>911</v>
       </c>
       <c r="H261" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="I261" t="s">
         <v>1217</v>
@@ -10997,7 +10994,7 @@
         <v>834</v>
       </c>
       <c r="H262" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="I262" t="s">
         <v>1213</v>
@@ -11023,7 +11020,7 @@
         <v>3</v>
       </c>
       <c r="H263" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="I263" t="s">
         <v>1213</v>
@@ -11049,7 +11046,7 @@
         <v>1023</v>
       </c>
       <c r="H264" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="I264" t="s">
         <v>1217</v>
@@ -11075,7 +11072,7 @@
         <v>886</v>
       </c>
       <c r="H265" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="I265" t="s">
         <v>1217</v>
@@ -11153,7 +11150,7 @@
         <v>894</v>
       </c>
       <c r="H268" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="I268" t="s">
         <v>1217</v>
@@ -11205,7 +11202,7 @@
         <v>894</v>
       </c>
       <c r="H270" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="I270" t="s">
         <v>1213</v>
@@ -11231,7 +11228,7 @@
         <v>1025</v>
       </c>
       <c r="H271" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="I271" t="s">
         <v>1213</v>
@@ -11257,7 +11254,7 @@
         <v>1026</v>
       </c>
       <c r="H272" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="I272" t="s">
         <v>1213</v>
@@ -11283,7 +11280,7 @@
         <v>1027</v>
       </c>
       <c r="H273" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="I273" t="s">
         <v>1213</v>
@@ -11847,7 +11844,7 @@
         <v>1040</v>
       </c>
       <c r="H294" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="I294" t="s">
         <v>1213</v>
@@ -11951,7 +11948,7 @@
         <v>839</v>
       </c>
       <c r="H298" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="I298" t="s">
         <v>1217</v>
@@ -11977,7 +11974,7 @@
         <v>943</v>
       </c>
       <c r="H299" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="I299" t="s">
         <v>1213</v>
@@ -12029,7 +12026,7 @@
         <v>940</v>
       </c>
       <c r="H301" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="I301" t="s">
         <v>1217</v>
@@ -12159,7 +12156,7 @@
         <v>1045</v>
       </c>
       <c r="H306" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="I306" t="s">
         <v>1213</v>
@@ -12185,7 +12182,7 @@
         <v>926</v>
       </c>
       <c r="H307" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="I307" t="s">
         <v>1213</v>
@@ -12214,7 +12211,7 @@
         <v>956</v>
       </c>
       <c r="H308" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="I308" t="s">
         <v>1213</v>
@@ -12266,7 +12263,7 @@
         <v>893</v>
       </c>
       <c r="H310" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="I310" t="s">
         <v>1213</v>
@@ -12292,7 +12289,7 @@
         <v>853</v>
       </c>
       <c r="H311" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="I311" t="s">
         <v>1213</v>
@@ -12867,7 +12864,7 @@
         <v>911</v>
       </c>
       <c r="H333" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="I333" t="s">
         <v>1217</v>
@@ -12893,7 +12890,7 @@
         <v>911</v>
       </c>
       <c r="H334" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="I334" t="s">
         <v>1217</v>
@@ -12919,7 +12916,7 @@
         <v>955</v>
       </c>
       <c r="H335" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="I335" t="s">
         <v>1217</v>
@@ -14180,7 +14177,7 @@
         <v>839</v>
       </c>
       <c r="H382" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="I382" t="s">
         <v>1217</v>
@@ -14206,7 +14203,7 @@
         <v>839</v>
       </c>
       <c r="H383" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="I383" t="s">
         <v>1217</v>
